--- a/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>444775</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>420754</v>
+        <v>420646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>469963</v>
+        <v>469461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.690528299718624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6532359141388693</v>
+        <v>0.6530672342320846</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7296342744001788</v>
+        <v>0.7288550996971335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>788</v>
@@ -762,19 +762,19 @@
         <v>467718</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>451616</v>
+        <v>452632</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>483209</v>
+        <v>482461</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.809844359743171</v>
+        <v>0.8098443597431711</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7819646806957408</v>
+        <v>0.7837240826591964</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8366674992642</v>
+        <v>0.8353726370574057</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1270</v>
@@ -783,19 +783,19 @@
         <v>912492</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>883624</v>
+        <v>882924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>939228</v>
+        <v>938941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7469355479059379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7233054706428798</v>
+        <v>0.7227322347034068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7688207200478456</v>
+        <v>0.7685862151387729</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17480</v>
+        <v>16316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35853</v>
+        <v>36193</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03957124279794478</v>
+        <v>0.03957124279794477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02713897783689586</v>
+        <v>0.0253307676679167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05566243403853965</v>
+        <v>0.05619161779694163</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -833,19 +833,19 @@
         <v>8831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4714</v>
+        <v>4547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14544</v>
+        <v>14524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01529145420100246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008161725998452671</v>
+        <v>0.007872734474375878</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02518268719058445</v>
+        <v>0.02514888890909431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -854,19 +854,19 @@
         <v>34320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25448</v>
+        <v>24732</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46703</v>
+        <v>45961</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02809285454877295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02083054198738126</v>
+        <v>0.02024488718494993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03822955863147306</v>
+        <v>0.03762196977927217</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4088</v>
+        <v>2924</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00109893856277638</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.006347099740861646</v>
+        <v>0.004538957117346012</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2234</v>
+        <v>2270</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0007832218040723942</v>
+        <v>0.0007832218040723945</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.003867911135006175</v>
+        <v>0.003930076801795502</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4714</v>
+        <v>3867</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0009496819282424685</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003858880847490433</v>
+        <v>0.003165190553312052</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>7443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2588</v>
+        <v>2628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23498</v>
+        <v>19601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01155588792967263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004018249633461002</v>
+        <v>0.004079419389324261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03648127730624502</v>
+        <v>0.03043151791220284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3377</v>
+        <v>3387</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001162243312874121</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005847629044582263</v>
+        <v>0.005865149527002577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -996,19 +996,19 @@
         <v>8114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2703</v>
+        <v>3216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22124</v>
+        <v>22610</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006642241842550092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002212510118444499</v>
+        <v>0.002632734104447688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01811010275120898</v>
+        <v>0.01850819124754524</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>38412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28549</v>
+        <v>27861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52439</v>
+        <v>53613</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05963549460709518</v>
+        <v>0.05963549460709516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04432265833629088</v>
+        <v>0.04325487441207188</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08141281645258228</v>
+        <v>0.08323544423426689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1046,19 +1046,19 @@
         <v>17757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12353</v>
+        <v>12112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25943</v>
+        <v>25903</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.03074604587101237</v>
+        <v>0.03074604587101238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02138840483064138</v>
+        <v>0.02097154747430555</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04492055493054133</v>
+        <v>0.04485125032682447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -1067,19 +1067,19 @@
         <v>56169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43867</v>
+        <v>43298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71401</v>
+        <v>70801</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04597786708808681</v>
+        <v>0.04597786708808682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03590790361590558</v>
+        <v>0.03544269492762312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05844648442029403</v>
+        <v>0.05795502763067951</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>3669</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9520</v>
+        <v>9653</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005696046591474891</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001640939115834129</v>
+        <v>0.001612792772958587</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01477974814670057</v>
+        <v>0.01498651344509112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1117,19 +1117,19 @@
         <v>2833</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>607</v>
+        <v>839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7546</v>
+        <v>7543</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004904743524500052</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001051287247176445</v>
+        <v>0.001453188534692741</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01306558102565133</v>
+        <v>0.01306067054496896</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1138,19 +1138,19 @@
         <v>6502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2680</v>
+        <v>2887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13123</v>
+        <v>13273</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005321954214630989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002193916443533896</v>
+        <v>0.002363330234562801</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01074238227019942</v>
+        <v>0.01086479188273061</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>123613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104003</v>
+        <v>103767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143982</v>
+        <v>145948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1919140897924122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1614682505169249</v>
+        <v>0.1611025182742157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.223537181323826</v>
+        <v>0.2265886426521267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1188,19 +1188,19 @@
         <v>79278</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66226</v>
+        <v>66292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92820</v>
+        <v>92778</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1372679315433675</v>
+        <v>0.1372679315433676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1146682518081668</v>
+        <v>0.1147830006944844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1607157933552638</v>
+        <v>0.1606435666425683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -1209,19 +1209,19 @@
         <v>202891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179107</v>
+        <v>181306</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>228783</v>
+        <v>228113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1660798524717787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1466112108208812</v>
+        <v>0.1484108619290325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1872738505552822</v>
+        <v>0.1867259347433055</v>
       </c>
     </row>
     <row r="11">
@@ -1313,19 +1313,19 @@
         <v>680362</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>653157</v>
+        <v>650165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>711324</v>
+        <v>711099</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7109275203913085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6825001885163743</v>
+        <v>0.6793740641764264</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7432806951421427</v>
+        <v>0.7430450897234689</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>914</v>
@@ -1334,19 +1334,19 @@
         <v>635320</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>615844</v>
+        <v>613114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>655160</v>
+        <v>654727</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7905025534001566</v>
+        <v>0.7905025534001565</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7662698336962818</v>
+        <v>0.7628731635831871</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8151887655010418</v>
+        <v>0.8146500712991323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1542</v>
@@ -1355,19 +1355,19 @@
         <v>1315682</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1283182</v>
+        <v>1277751</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1351051</v>
+        <v>1351121</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7472504792842684</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7287919933093381</v>
+        <v>0.7257073171645783</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7673388840424024</v>
+        <v>0.7673785817351593</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>80831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64385</v>
+        <v>64320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99463</v>
+        <v>100697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08446275661729839</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06727711926562116</v>
+        <v>0.06720936582776528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1039313240244913</v>
+        <v>0.1052206030204702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1405,19 +1405,19 @@
         <v>31411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22398</v>
+        <v>23192</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41024</v>
+        <v>43733</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03908301004209181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02786904829441992</v>
+        <v>0.02885705700947374</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05104389963811749</v>
+        <v>0.05441576521416501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -1426,19 +1426,19 @@
         <v>112242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94251</v>
+        <v>93275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133426</v>
+        <v>136669</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06374863804142694</v>
+        <v>0.06374863804142696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05353066270170821</v>
+        <v>0.05297609435152094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07578039568325666</v>
+        <v>0.07762228519268029</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5710</v>
+        <v>4315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001772152993473958</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007105162343366567</v>
+        <v>0.005369200733026156</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4338</v>
+        <v>4949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0008089200582151551</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.002463779918480182</v>
+        <v>0.002810765929952583</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>5086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1749</v>
+        <v>1984</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12132</v>
+        <v>13275</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005314330831607633</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00182771694020397</v>
+        <v>0.0020734273596036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01267729279375943</v>
+        <v>0.01387100781944156</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1539,19 +1539,19 @@
         <v>6801</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3716</v>
+        <v>3469</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11760</v>
+        <v>12059</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.008461822351449289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.004623346021208711</v>
+        <v>0.004316238407082789</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01463202188764931</v>
+        <v>0.01500456246543299</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1560,19 +1560,19 @@
         <v>11887</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6923</v>
+        <v>6685</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20001</v>
+        <v>19859</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006751040321611061</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003931839966202413</v>
+        <v>0.003797073448983411</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01135986823759485</v>
+        <v>0.01127927012362848</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>49954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38152</v>
+        <v>38282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65096</v>
+        <v>64775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05219871490369892</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03986559324167854</v>
+        <v>0.04000234437421622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06802068811672757</v>
+        <v>0.06768478582873907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1610,19 +1610,19 @@
         <v>24843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17430</v>
+        <v>17282</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33849</v>
+        <v>33666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03091153867883664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02168778625858453</v>
+        <v>0.02150283594665769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04211651466129381</v>
+        <v>0.04188908376472649</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1631,19 +1631,19 @@
         <v>74798</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61369</v>
+        <v>59826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>91670</v>
+        <v>92699</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04248193317296575</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0348552305036894</v>
+        <v>0.03397841337273592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0520647779120768</v>
+        <v>0.05264878374355519</v>
       </c>
     </row>
     <row r="17">
@@ -1660,19 +1660,19 @@
         <v>20993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13224</v>
+        <v>12419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34400</v>
+        <v>34899</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02193624992204665</v>
+        <v>0.02193624992204666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01381763340574968</v>
+        <v>0.01297664539109287</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03594590861111645</v>
+        <v>0.03646664904680896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1681,19 +1681,19 @@
         <v>3974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9486</v>
+        <v>8695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004945179368490259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001796516509115997</v>
+        <v>0.001822872750465581</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01180326117807536</v>
+        <v>0.01081886842662147</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1702,19 +1702,19 @@
         <v>24968</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16488</v>
+        <v>16432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38106</v>
+        <v>38559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01418047610797126</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009364213172310978</v>
+        <v>0.009332764840373353</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02164276243469868</v>
+        <v>0.02190008292912744</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>119779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99101</v>
+        <v>99634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140889</v>
+        <v>142946</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1251604273340399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1035536686059624</v>
+        <v>0.1041098790850697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1472186489641228</v>
+        <v>0.1493676830471552</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>140</v>
@@ -1752,19 +1752,19 @@
         <v>99918</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>86198</v>
+        <v>83194</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>118001</v>
+        <v>117435</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1243237431655014</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1072521262648326</v>
+        <v>0.1035152423685678</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1468239264458072</v>
+        <v>0.1461199534889672</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>266</v>
@@ -1773,19 +1773,19 @@
         <v>219697</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>193729</v>
+        <v>193811</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>246302</v>
+        <v>244566</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1247785130135415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1100294684338303</v>
+        <v>0.1100761001565767</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1398891901034885</v>
+        <v>0.138903122355175</v>
       </c>
     </row>
     <row r="19">
@@ -1877,19 +1877,19 @@
         <v>559790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>534711</v>
+        <v>532196</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>585334</v>
+        <v>580888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7629380235607424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7287574903315059</v>
+        <v>0.7253311096984132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7977529795556066</v>
+        <v>0.7916925669406254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>669</v>
@@ -1898,19 +1898,19 @@
         <v>511741</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>497370</v>
+        <v>495472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>528049</v>
+        <v>526271</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8425962668546635</v>
+        <v>0.8425962668546636</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8189346296386234</v>
+        <v>0.815810028490755</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8694476818792009</v>
+        <v>0.8665206892995757</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1145</v>
@@ -1919,19 +1919,19 @@
         <v>1071530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1045030</v>
+        <v>1041591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1099890</v>
+        <v>1098722</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7990133748104469</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7792527565696673</v>
+        <v>0.7766880830656011</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8201606955638129</v>
+        <v>0.8192895020022862</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>56597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44408</v>
+        <v>43865</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72633</v>
+        <v>72565</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07713554166072321</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06052371131271667</v>
+        <v>0.05978406007482997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09899172398747906</v>
+        <v>0.09889867480912837</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1969,19 +1969,19 @@
         <v>20765</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13902</v>
+        <v>13669</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28843</v>
+        <v>29476</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03418940885727765</v>
+        <v>0.03418940885727766</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02288986093174665</v>
+        <v>0.02250607715125095</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0474904819755017</v>
+        <v>0.04853259159203627</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -1990,19 +1990,19 @@
         <v>77361</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62128</v>
+        <v>61973</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94775</v>
+        <v>97258</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05768624474384047</v>
+        <v>0.05768624474384048</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04632716513155778</v>
+        <v>0.04621180575792248</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07067138918586917</v>
+        <v>0.07252263126178188</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>7543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3199</v>
+        <v>3231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14903</v>
+        <v>15286</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01028084994079792</v>
+        <v>0.01028084994079791</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004359458889169036</v>
+        <v>0.00440333454980327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02031192213025849</v>
+        <v>0.02083266713607753</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2043,16 +2043,16 @@
         <v>668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7315</v>
+        <v>7205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005022454703281986</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00110045697937407</v>
+        <v>0.001100373358975452</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01204472448907141</v>
+        <v>0.01186372343691877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2061,19 +2061,19 @@
         <v>10594</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5915</v>
+        <v>5440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19067</v>
+        <v>18546</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00789944599113742</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004410425347359307</v>
+        <v>0.004056489625139737</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01421765929244784</v>
+        <v>0.01382926327383553</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>9574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5185</v>
+        <v>4638</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18108</v>
+        <v>16612</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01304860512488971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007066097472025366</v>
+        <v>0.006321441371738353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02467946537946954</v>
+        <v>0.02263987492983488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2111,19 +2111,19 @@
         <v>2776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6930</v>
+        <v>6410</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004570957668884809</v>
+        <v>0.00457095766888481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001158020668843251</v>
+        <v>0.001163551655675561</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01141086742051689</v>
+        <v>0.01055469437552027</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2132,19 +2132,19 @@
         <v>12350</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7250</v>
+        <v>6861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20508</v>
+        <v>20921</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009209277302682022</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005406151254239487</v>
+        <v>0.005116042904749033</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01529195154551653</v>
+        <v>0.01560038475251078</v>
       </c>
     </row>
     <row r="24">
@@ -2161,19 +2161,19 @@
         <v>15403</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8908</v>
+        <v>9193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24982</v>
+        <v>24915</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02099326725769863</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01214057855956374</v>
+        <v>0.01252852920457555</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0340485850533751</v>
+        <v>0.03395701967297614</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2182,19 +2182,19 @@
         <v>11188</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6792</v>
+        <v>6918</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17200</v>
+        <v>17772</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.01842161089366112</v>
+        <v>0.01842161089366113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01118277414560693</v>
+        <v>0.01139082687547523</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02831994484492412</v>
+        <v>0.02926162783378559</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2203,19 +2203,19 @@
         <v>26592</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18487</v>
+        <v>18277</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36783</v>
+        <v>37068</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01982862436840119</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01378555439679275</v>
+        <v>0.0136284475882646</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02742835782202411</v>
+        <v>0.02764091287572151</v>
       </c>
     </row>
     <row r="25">
@@ -2232,19 +2232,19 @@
         <v>8710</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4148</v>
+        <v>3933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16114</v>
+        <v>15302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01187060923304518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005652986509826183</v>
+        <v>0.005360053300792114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0219622354931054</v>
+        <v>0.02085533085481895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2253,19 +2253,19 @@
         <v>3982</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8554</v>
+        <v>8106</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006555845156763876</v>
+        <v>0.006555845156763879</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002283350824735378</v>
+        <v>0.002267584311785306</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01408414303995421</v>
+        <v>0.01334757122319761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2274,19 +2274,19 @@
         <v>12691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7455</v>
+        <v>7121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19954</v>
+        <v>19821</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009463677157557261</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00555933267435831</v>
+        <v>0.005309929940572112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01487888687399469</v>
+        <v>0.01478026295744282</v>
       </c>
     </row>
     <row r="26">
@@ -2303,19 +2303,19 @@
         <v>76112</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58566</v>
+        <v>60014</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>95653</v>
+        <v>96074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.103733103222103</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07982011537105992</v>
+        <v>0.08179324702142765</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1303652944530132</v>
+        <v>0.1309387359507175</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -2324,19 +2324,19 @@
         <v>53837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42329</v>
+        <v>42178</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65770</v>
+        <v>67136</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08864345586546687</v>
+        <v>0.08864345586546689</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06969639983616771</v>
+        <v>0.06944729550114552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1082919553390027</v>
+        <v>0.1105419792215327</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2345,19 +2345,19 @@
         <v>129949</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110976</v>
+        <v>108702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>154186</v>
+        <v>151969</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.09689935562593469</v>
+        <v>0.0968993556259347</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08275172212332886</v>
+        <v>0.08105617723026333</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1149722827389326</v>
+        <v>0.1133194933656769</v>
       </c>
     </row>
     <row r="27">
@@ -2449,19 +2449,19 @@
         <v>629257</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>599370</v>
+        <v>602536</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>656766</v>
+        <v>655507</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7070647980723593</v>
+        <v>0.7070647980723594</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6734824789268347</v>
+        <v>0.6770395692597519</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7379745135426327</v>
+        <v>0.7365603092000268</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>910</v>
@@ -2470,19 +2470,19 @@
         <v>635495</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>614568</v>
+        <v>615510</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>656240</v>
+        <v>653536</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7880470616008711</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7620964482751709</v>
+        <v>0.7632639856194133</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8137721276629498</v>
+        <v>0.8104182595705486</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1570</v>
@@ -2491,19 +2491,19 @@
         <v>1264753</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1232388</v>
+        <v>1228468</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1297881</v>
+        <v>1299262</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7455619313472956</v>
+        <v>0.7455619313472955</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7264832356795058</v>
+        <v>0.7241722654164109</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7650910796364749</v>
+        <v>0.7659049148922616</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>105688</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86253</v>
+        <v>88555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>126064</v>
+        <v>127574</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1187558125649874</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09691855002887061</v>
+        <v>0.09950460302126969</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1416519275625945</v>
+        <v>0.1433480133588353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>69</v>
@@ -2541,19 +2541,19 @@
         <v>48322</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38429</v>
+        <v>38732</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61759</v>
+        <v>60796</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05992170601120606</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04765390371867938</v>
+        <v>0.04803001048412815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07658373764407479</v>
+        <v>0.07539033125079327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>185</v>
@@ -2562,19 +2562,19 @@
         <v>154009</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>132966</v>
+        <v>132611</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>176602</v>
+        <v>176791</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09078741130740467</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07838218109552256</v>
+        <v>0.07817297197736579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1041054290724695</v>
+        <v>0.1042171926391127</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>8518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4142</v>
+        <v>4272</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15891</v>
+        <v>16852</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.009571268420749122</v>
+        <v>0.009571268420749124</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004653839370679503</v>
+        <v>0.00480072736530967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01785584878652883</v>
+        <v>0.01893521311016658</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2612,19 +2612,19 @@
         <v>2494</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6584</v>
+        <v>6266</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003092471529064949</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0008417616206662247</v>
+        <v>0.0008387796781074112</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.008164037110377872</v>
+        <v>0.007769923606590925</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2633,19 +2633,19 @@
         <v>11012</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6299</v>
+        <v>6217</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18156</v>
+        <v>17973</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.006491395167853496</v>
+        <v>0.006491395167853497</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003713126101060464</v>
+        <v>0.003664984097704929</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01070310907143469</v>
+        <v>0.01059479822117862</v>
       </c>
     </row>
     <row r="31">
@@ -2662,19 +2662,19 @@
         <v>12224</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6937</v>
+        <v>6834</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19786</v>
+        <v>20830</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01373534710146028</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007794784695773244</v>
+        <v>0.007678558177081013</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02223253114892771</v>
+        <v>0.02340519911654068</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2683,19 +2683,19 @@
         <v>10255</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5725</v>
+        <v>5534</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18617</v>
+        <v>17554</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01271662809110534</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007099481573473757</v>
+        <v>0.006862935040624896</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02308574283867364</v>
+        <v>0.02176758568929187</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -2704,19 +2704,19 @@
         <v>22479</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14896</v>
+        <v>15157</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33157</v>
+        <v>32484</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01325107116494564</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00878128789839884</v>
+        <v>0.008935199260347273</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01954599293045176</v>
+        <v>0.01914916286064661</v>
       </c>
     </row>
     <row r="32">
@@ -2733,19 +2733,19 @@
         <v>22198</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14549</v>
+        <v>14408</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31926</v>
+        <v>31895</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02494255637797179</v>
+        <v>0.0249425563779718</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01634779258758509</v>
+        <v>0.01618907497719278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03587359767288159</v>
+        <v>0.03583827653859599</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2754,19 +2754,19 @@
         <v>15200</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9682</v>
+        <v>9815</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24019</v>
+        <v>23551</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01884905988622372</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01200673816229121</v>
+        <v>0.01217153866437628</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02978471207814365</v>
+        <v>0.0292043779328984</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -2775,19 +2775,19 @@
         <v>37398</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>27132</v>
+        <v>28327</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48780</v>
+        <v>50212</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02204584620549567</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01599422915717551</v>
+        <v>0.01669832198785105</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02875539342544908</v>
+        <v>0.02959967492641577</v>
       </c>
     </row>
     <row r="33">
@@ -2804,19 +2804,19 @@
         <v>14519</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8518</v>
+        <v>8339</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>24992</v>
+        <v>23588</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0163139626576895</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009571108532049094</v>
+        <v>0.009369767341788786</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02808174175051338</v>
+        <v>0.02650473381858844</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -2825,19 +2825,19 @@
         <v>5961</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2757</v>
+        <v>2707</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11084</v>
+        <v>10977</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.007392345333184639</v>
+        <v>0.00739234533318464</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00341901948249476</v>
+        <v>0.003356777651104218</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01374468347298509</v>
+        <v>0.01361249602023788</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>25</v>
@@ -2846,19 +2846,19 @@
         <v>20480</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>13076</v>
+        <v>13679</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>29813</v>
+        <v>30159</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01207282791775325</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007708302543804148</v>
+        <v>0.00806357470135048</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01757466190833882</v>
+        <v>0.01777865819910721</v>
       </c>
     </row>
     <row r="34">
@@ -2875,19 +2875,19 @@
         <v>97554</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>80251</v>
+        <v>80295</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>117096</v>
+        <v>117448</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1096162548047824</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09017415208260161</v>
+        <v>0.09022303257422214</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1315748662318773</v>
+        <v>0.1319704940142959</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>138</v>
@@ -2896,19 +2896,19 @@
         <v>88690</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>74779</v>
+        <v>74215</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>103544</v>
+        <v>104497</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1099807275483442</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09273042791105512</v>
+        <v>0.09203099287671107</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1283994648865751</v>
+        <v>0.1295811033044208</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>245</v>
@@ -2917,19 +2917,19 @@
         <v>186244</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>164563</v>
+        <v>163224</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>211147</v>
+        <v>214060</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1097895168892516</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09700882131422668</v>
+        <v>0.09621955510625323</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1244693820607147</v>
+        <v>0.1261865262943593</v>
       </c>
     </row>
     <row r="35">
@@ -3021,19 +3021,19 @@
         <v>2314184</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2256853</v>
+        <v>2262840</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2364090</v>
+        <v>2366022</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7176208610896762</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6998427947338329</v>
+        <v>0.7016994848518091</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7330965743662716</v>
+        <v>0.7336958311979033</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3281</v>
@@ -3042,19 +3042,19 @@
         <v>2250273</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2214645</v>
+        <v>2215195</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2284437</v>
+        <v>2283011</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8051104929079588</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7923631683145403</v>
+        <v>0.7925600728766523</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8173337443817238</v>
+        <v>0.8168236161797865</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5527</v>
@@ -3063,19 +3063,19 @@
         <v>4564456</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4499668</v>
+        <v>4503131</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4629488</v>
+        <v>4627483</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.7582422944223027</v>
+        <v>0.758242294422303</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.74747970305706</v>
+        <v>0.7480549349642585</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7690453285900304</v>
+        <v>0.7687121686695927</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>268604</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>238198</v>
+        <v>235190</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>302744</v>
+        <v>299286</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08329312742411768</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07386429591707068</v>
+        <v>0.07293159567659019</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09387984135206863</v>
+        <v>0.09280771339045794</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>151</v>
@@ -3113,19 +3113,19 @@
         <v>109329</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>92421</v>
+        <v>92303</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>127658</v>
+        <v>128614</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03911595007657569</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03306660034138054</v>
+        <v>0.03302442164330543</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04567391028678183</v>
+        <v>0.04601601847795388</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>430</v>
@@ -3134,19 +3134,19 @@
         <v>377932</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>343624</v>
+        <v>343651</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>412601</v>
+        <v>415339</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06278166535539974</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05708241563449917</v>
+        <v>0.05708695632373269</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06854084781431108</v>
+        <v>0.06899566660994078</v>
       </c>
     </row>
     <row r="38">
@@ -3163,19 +3163,19 @@
         <v>16769</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9546</v>
+        <v>10098</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26361</v>
+        <v>26150</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.005200078172776479</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002960157212391151</v>
+        <v>0.003131262792704296</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.008174482335060034</v>
+        <v>0.00810907235047807</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -3184,19 +3184,19 @@
         <v>7421</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3792</v>
+        <v>3661</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12465</v>
+        <v>13373</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.002655024278984765</v>
+        <v>0.002655024278984764</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001356840658428163</v>
+        <v>0.001310014703180534</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.004459857514024661</v>
+        <v>0.004784742497230309</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -3205,19 +3205,19 @@
         <v>24190</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16598</v>
+        <v>15975</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35693</v>
+        <v>34935</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.004018409729030691</v>
+        <v>0.00401840972903069</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002757297559156299</v>
+        <v>0.002653804984342997</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.005929220632254809</v>
+        <v>0.005803326152916987</v>
       </c>
     </row>
     <row r="39">
@@ -3234,19 +3234,19 @@
         <v>34327</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>23485</v>
+        <v>24001</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>51135</v>
+        <v>52064</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01064472023854447</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007282552975499097</v>
+        <v>0.007442486391185791</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01585686047357746</v>
+        <v>0.01614502003219634</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>28</v>
@@ -3255,19 +3255,19 @@
         <v>20503</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14234</v>
+        <v>13565</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29658</v>
+        <v>30306</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.007335622544440906</v>
+        <v>0.007335622544440905</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.005092742087888747</v>
+        <v>0.004853264524164093</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01061116394596827</v>
+        <v>0.01084297849032034</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>62</v>
@@ -3276,19 +3276,19 @@
         <v>54830</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>42032</v>
+        <v>41893</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>72730</v>
+        <v>72552</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.009108306282072806</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.006982316737795998</v>
+        <v>0.006959231486891228</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01208181062547851</v>
+        <v>0.01205220918340513</v>
       </c>
     </row>
     <row r="40">
@@ -3305,19 +3305,19 @@
         <v>125967</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>106134</v>
+        <v>106218</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>148489</v>
+        <v>150241</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03906206401802832</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03291167198672488</v>
+        <v>0.03293779902286609</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04604600153127991</v>
+        <v>0.04658933769335846</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>105</v>
@@ -3326,19 +3326,19 @@
         <v>68989</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>56362</v>
+        <v>55969</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>85350</v>
+        <v>84042</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02468303360370264</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02016549178634659</v>
+        <v>0.02002469434113313</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03053686878211039</v>
+        <v>0.03006877455038793</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>250</v>
@@ -3347,19 +3347,19 @@
         <v>194956</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>171902</v>
+        <v>169970</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>224113</v>
+        <v>223291</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03238588064379123</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02855615817612575</v>
+        <v>0.02823529013897921</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03722940840128638</v>
+        <v>0.03709291050042655</v>
       </c>
     </row>
     <row r="41">
@@ -3376,19 +3376,19 @@
         <v>47891</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>35035</v>
+        <v>34376</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>63580</v>
+        <v>63801</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01485069791524513</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01086433890585336</v>
+        <v>0.01065989295738049</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0197160972123806</v>
+        <v>0.01978435469964892</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3397,19 +3397,19 @@
         <v>16750</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11141</v>
+        <v>10926</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24744</v>
+        <v>24676</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005992878254664327</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003986038842068879</v>
+        <v>0.003908997130905031</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008853138173342661</v>
+        <v>0.008828697111979722</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>71</v>
@@ -3418,19 +3418,19 @@
         <v>64641</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>50000</v>
+        <v>50616</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>83702</v>
+        <v>83213</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01073801252228269</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.008306008264043768</v>
+        <v>0.008408214023652287</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01390455702553547</v>
+        <v>0.01382320859487618</v>
       </c>
     </row>
     <row r="42">
@@ -3447,19 +3447,19 @@
         <v>417058</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>379477</v>
+        <v>375861</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>457480</v>
+        <v>454884</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1293284511416118</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1176745527918994</v>
+        <v>0.1165532338542331</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1418629827299697</v>
+        <v>0.1410580920160648</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>489</v>
@@ -3468,19 +3468,19 @@
         <v>321723</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>296133</v>
+        <v>296111</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>351516</v>
+        <v>351950</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.115106998333673</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1059514622333572</v>
+        <v>0.1059436701294789</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1257667129031422</v>
+        <v>0.1259220434943706</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>930</v>
@@ -3489,19 +3489,19 @@
         <v>738781</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>693040</v>
+        <v>687954</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>786055</v>
+        <v>785280</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1227254310451201</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1151270871258453</v>
+        <v>0.1142821647521476</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1305785832581871</v>
+        <v>0.1304498473204544</v>
       </c>
     </row>
     <row r="43">
